--- a/notion_data/DANH_SACH_THU_NO.xlsx
+++ b/notion_data/DANH_SACH_THU_NO.xlsx
@@ -5931,7 +5931,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[{'type': 'relation', 'relation': [{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]}]</t>
+          <t>[{'type': 'relation', 'relation': []}]</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="BJ15" t="inlineStr">
         <is>
-          <t>[{'type': 'relation', 'relation': [{'id': 'bc9b2b6b-3140-44b9-a1be-4dc8e77d8898'}]}]</t>
+          <t>[{'type': 'relation', 'relation': [{'id': 'f973382b-037a-4eb1-84bc-e9e5318184b8'}]}]</t>
         </is>
       </c>
       <c r="BK15" t="inlineStr">
